--- a/Analisis Mora Bna1.xlsx
+++ b/Analisis Mora Bna1.xlsx
@@ -597,7 +597,7 @@
     <t>Sector_Actividad</t>
   </si>
   <si>
-    <t>Deuda _Pesificada($)</t>
+    <t>Deuda_Pesificada</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analisis Mora Bna1.xlsx
+++ b/Analisis Mora Bna1.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="193">
-  <si>
-    <t>Nombre</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="64">
   <si>
     <t>VTO.</t>
   </si>
@@ -42,9 +39,6 @@
     <t>ALTA CORDOBA</t>
   </si>
   <si>
-    <t xml:space="preserve"> GABRIEL</t>
-  </si>
-  <si>
     <t>ACTIVIDADES DIVERSAS NO CLASIFICADAS EN OTRA PARTE</t>
   </si>
   <si>
@@ -57,15 +51,9 @@
     <t xml:space="preserve"> CARTERA INACTIVA PREVISIO</t>
   </si>
   <si>
-    <t xml:space="preserve"> MELISA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CARTERA ABIERTA</t>
   </si>
   <si>
-    <t xml:space="preserve"> PEDRO ANDRES</t>
-  </si>
-  <si>
     <t>PERSONAS FIS.QUE DESARROLLEN ALGUNA ACTIV.</t>
   </si>
   <si>
@@ -75,24 +63,15 @@
     <t xml:space="preserve"> CARTERA INACTIVA HABERES</t>
   </si>
   <si>
-    <t xml:space="preserve"> ELBA ROSA</t>
-  </si>
-  <si>
     <t>JUBILADOS Y PENSIONADOS</t>
   </si>
   <si>
     <t xml:space="preserve"> CARTERA PREVISIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>ALTA GRACIA</t>
   </si>
   <si>
-    <t xml:space="preserve"> WALTER ARIEL</t>
-  </si>
-  <si>
     <t>CEREALES  OLEAGINOSOS Y FORRAJERAS</t>
   </si>
   <si>
@@ -102,45 +81,15 @@
     <t>AGROPECUARIO</t>
   </si>
   <si>
-    <t xml:space="preserve"> JUAN GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CATHERINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VANESA FABIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MANUEL  ALEJANDRO</t>
-  </si>
-  <si>
     <t>AVDA. HUMBERTO I</t>
   </si>
   <si>
-    <t xml:space="preserve"> EDGARDO FABIAN</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CARTERA HABERES</t>
   </si>
   <si>
-    <t xml:space="preserve"> DARIO EZEQUIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YAMILE SOLEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ERIKA CONSTANZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANA PATRICIA</t>
-  </si>
-  <si>
     <t>BARR.LOS NARANJOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> MAYRA VANESSA</t>
-  </si>
-  <si>
     <t>SERV GEST LOGISTICA P TRANSPORTE DE MERCADERIAS</t>
   </si>
   <si>
@@ -150,327 +99,75 @@
     <t>SERVICIO</t>
   </si>
   <si>
-    <t xml:space="preserve"> PAULA MARCELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAMILA SARAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CECILIA SOLEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ALEJANDRA  SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOEMI RAQUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CAMILA GIANELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EVELYN DANIELA</t>
-  </si>
-  <si>
     <t>BARRIO SAN VICENTE</t>
   </si>
   <si>
-    <t xml:space="preserve"> VICTOR ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CATALINA</t>
-  </si>
-  <si>
     <t>CORDOBA</t>
   </si>
   <si>
-    <t xml:space="preserve"> CARINA DOLORES</t>
-  </si>
-  <si>
     <t>SERVICIOS DE CONTABILIDAD AUDITORIA Y ASES FISCAL</t>
   </si>
   <si>
     <t>SERVICIOS ESPECIALES TECNICOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> CARLOS JORGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JULIO CESAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA FLORENC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA JOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EDUARDO CESAR</t>
-  </si>
-  <si>
     <t>OTROS CULTIVOS INDUSTRIALES</t>
   </si>
   <si>
-    <t xml:space="preserve"> MATIAS FABIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUCAS ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DARIO OSVALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMBROSIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AGUSTINA VICTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAVID SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> YOANA YAQUELIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA SORAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FRANCISCO AGUSTIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEONARDO DAVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GIULIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUEDA GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VICTORIA SOLEDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NICOLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SILVANA CARINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VICTOR ABEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANAHI JACQUELINE ABIGAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLORENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NOELIA MARISOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MELISA ABIGAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DAILI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA DE LOS ANGELES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATIAS ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JENIFER MARISA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUBEN ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DANA FABIANA</t>
-  </si>
-  <si>
     <t>COSQUIN</t>
   </si>
   <si>
-    <t xml:space="preserve"> ROSA MIRIAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JESICA YANINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OSMAR ORLANDO</t>
-  </si>
-  <si>
     <t>CRUZ DEL EJE</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARIA CELESTE</t>
-  </si>
-  <si>
     <t>DEAN FUNES</t>
   </si>
   <si>
-    <t xml:space="preserve"> ENZO LEANDRO</t>
-  </si>
-  <si>
     <t>JESUS MARIA</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARCELO ORLANDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GABRIEL ANTONIO</t>
-  </si>
-  <si>
     <t>LA FALDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> CELESTE ANDREA</t>
-  </si>
-  <si>
     <t>LAGUNA LARGA</t>
   </si>
   <si>
-    <t xml:space="preserve"> HECTOR FABIAN</t>
-  </si>
-  <si>
     <t>MINA CLAVERO</t>
   </si>
   <si>
-    <t xml:space="preserve"> VIVIANA ANDREA</t>
-  </si>
-  <si>
     <t>MONTE CRISTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> JOSE ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BETIANA ANDREA</t>
-  </si>
-  <si>
     <t>RIO SEGUNDO</t>
   </si>
   <si>
-    <t xml:space="preserve"> JOSE BENITO</t>
-  </si>
-  <si>
     <t>PROFESIONES LIBERALES - INGENIEROS ABOGADOS ETC-</t>
   </si>
   <si>
     <t>OTROS SERVICIOS</t>
   </si>
   <si>
-    <t xml:space="preserve"> JESSICA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LORENA PAOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GRECIA DAIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PAOLA ALEJANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ERIC GASTON</t>
-  </si>
-  <si>
     <t>UNQUILLO</t>
   </si>
   <si>
-    <t xml:space="preserve"> FABIAN ARGENTINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS JABIER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BRENDA MICAELA</t>
-  </si>
-  <si>
     <t>VILLA CARLOS PAZ</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DANIEL EDGARDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VARELA ROMINA BELEN</t>
-  </si>
-  <si>
     <t>VILLA DOLORES</t>
   </si>
   <si>
-    <t xml:space="preserve"> CRISTELA DEL RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA FLORENCIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUCAS EXEQUIEL</t>
-  </si>
-  <si>
     <t>V. GRAL. BELGRANO</t>
   </si>
   <si>
-    <t xml:space="preserve"> LUCAS DANIEL</t>
-  </si>
-  <si>
     <t>BARR.C.DE L/ROSAS</t>
   </si>
   <si>
-    <t xml:space="preserve"> YANINA ELIZABETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HECTOR ALFREDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NICOLAS ALEJANDRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AMERICO ARGENTINO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ELIANA BEATRIZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RUBEN OSVALDO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANTONELLA ANDREA CELESTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JUAN SEBASTIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NADIA ANAHI</t>
-  </si>
-  <si>
     <t>BARRIO SAN MARTIN</t>
   </si>
   <si>
-    <t xml:space="preserve"> MARINA SOLEDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ERNESTO OSCAR GERONIMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HECTOR GERARDO</t>
-  </si>
-  <si>
     <t>AV.SABATTINI</t>
   </si>
   <si>
-    <t xml:space="preserve"> LILIANA ROSA ELIZABETH</t>
-  </si>
-  <si>
     <t>MINORISTA - GENEROS TEXTILES PRENDAS VESTIR Y CALZ</t>
   </si>
   <si>
@@ -480,103 +177,19 @@
     <t>COMERCIO</t>
   </si>
   <si>
-    <t xml:space="preserve"> DAIANA ANAHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GASTON DAMIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ANA ROSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CINTIA AYELEN</t>
-  </si>
-  <si>
     <t>AV.JUAN B.JUSTO</t>
   </si>
   <si>
-    <t xml:space="preserve"> GRISELDA MARCELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GUSTAVO MIGUEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LUCIANO GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEA VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IVANNA GISELLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARISA GABRIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MACARENA MICAELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MIGUEL MARCELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MICAELA LEONELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DALMA TAMARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SILVIA CARINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PAULA GIMENA</t>
-  </si>
-  <si>
     <t>BARR.ALTO ALBERDI</t>
   </si>
   <si>
-    <t xml:space="preserve"> SILVIA LILIANA MARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DIEGO HERNAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KAREN AYELEN</t>
-  </si>
-  <si>
     <t>AV.VELEZ SARSFIELD</t>
   </si>
   <si>
-    <t xml:space="preserve"> SANTIAGO MARTIN</t>
-  </si>
-  <si>
     <t>SERV PROGRAM CONSULT INFORMATICA ACT CONEXAS</t>
   </si>
   <si>
     <t>SERVICIOS DE COMUNICACIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CARLOS HUGO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LEONARDO BRAIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GUSTAVO JULIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NADIA GABRIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DANIELA ALEJANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FLORENCIA NICOLE</t>
   </si>
   <si>
     <t>Numero_Cliente</t>
@@ -1421,23 +1034,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1452,25 +1068,22 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1478,40 +1091,37 @@
         <v>1046</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44896</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
-        <v>44896</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2">
+      <c r="L2">
         <v>316007.96000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1519,40 +1129,37 @@
         <v>1046</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44874</v>
+      </c>
+      <c r="E3">
+        <v>52</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F3">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3">
+      <c r="L3">
         <v>287595.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1560,40 +1167,37 @@
         <v>1046</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
         <v>44896</v>
       </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
       <c r="F4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
         <v>1</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="L4">
         <v>232587.05</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1601,40 +1205,37 @@
         <v>1046</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
         <v>44888</v>
       </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
       <c r="F5">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="L5">
         <v>174700</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1642,40 +1243,37 @@
         <v>1046</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44874</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44874</v>
-      </c>
-      <c r="F6">
-        <v>52</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
       <c r="I6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
+      <c r="L6">
         <v>159177</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1683,40 +1281,37 @@
         <v>1047</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
         <v>44844</v>
       </c>
+      <c r="E7">
+        <v>82</v>
+      </c>
       <c r="F7">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="L7">
         <v>577397.54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1724,40 +1319,37 @@
         <v>1047</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
         <v>44895</v>
       </c>
+      <c r="E8">
+        <v>31</v>
+      </c>
       <c r="F8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
         <v>1</v>
       </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
+      <c r="L8">
         <v>291171.3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1765,40 +1357,37 @@
         <v>1047</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
         <v>44874</v>
       </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
       <c r="F9">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
-      <c r="H9">
-        <v>2</v>
+      <c r="H9" t="s">
+        <v>6</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
+      <c r="L9">
         <v>194297.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1806,40 +1395,37 @@
         <v>1047</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1">
         <v>44874</v>
       </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
       <c r="F10">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>2</v>
+      <c r="H10" t="s">
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10">
+        <v>15</v>
+      </c>
+      <c r="L10">
         <v>185017.60000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1847,40 +1433,37 @@
         <v>1047</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
         <v>44895</v>
       </c>
+      <c r="E11">
+        <v>31</v>
+      </c>
       <c r="F11">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
         <v>1</v>
       </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
+      <c r="L11">
         <v>172720.3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1888,40 +1471,37 @@
         <v>1098</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
         <v>44888</v>
       </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
       <c r="F12">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-      <c r="H12">
-        <v>2</v>
+      <c r="H12" t="s">
+        <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12">
+        <v>21</v>
+      </c>
+      <c r="L12">
         <v>567750</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1929,40 +1509,37 @@
         <v>1098</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
         <v>44874</v>
       </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
       <c r="F13">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>2</v>
+      <c r="H13" t="s">
+        <v>11</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13">
+      <c r="L13">
         <v>197298.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1970,40 +1547,37 @@
         <v>1098</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
         <v>44874</v>
       </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
       <c r="F14">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14">
-        <v>2</v>
+      <c r="H14" t="s">
+        <v>6</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14">
+      <c r="L14">
         <v>173783.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -2011,40 +1585,37 @@
         <v>1098</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
         <v>44846</v>
       </c>
+      <c r="E15">
+        <v>80</v>
+      </c>
       <c r="F15">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15">
-        <v>2</v>
+      <c r="H15" t="s">
+        <v>11</v>
       </c>
       <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" t="s">
         <v>15</v>
       </c>
-      <c r="J15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15">
+      <c r="L15">
         <v>167600</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -2052,40 +1623,37 @@
         <v>1098</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
         <v>44874</v>
       </c>
+      <c r="E16">
+        <v>52</v>
+      </c>
       <c r="F16">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="H16">
-        <v>2</v>
+      <c r="H16" t="s">
+        <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K16" t="s">
         <v>10</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
+      <c r="L16">
         <v>156394.4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -2093,40 +1661,37 @@
         <v>1183</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
         <v>44895</v>
       </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
       <c r="F17">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
         <v>1</v>
       </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
       <c r="I17" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="L17">
         <v>830800.96</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -2134,40 +1699,37 @@
         <v>1183</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44888</v>
+      </c>
+      <c r="E18">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="1">
-        <v>44888</v>
-      </c>
       <c r="F18">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="H18">
-        <v>2</v>
+      <c r="H18" t="s">
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18" t="s">
         <v>10</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
+      <c r="L18">
         <v>307763.59999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -2175,40 +1737,37 @@
         <v>1183</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="1">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
         <v>44874</v>
       </c>
+      <c r="E19">
+        <v>52</v>
+      </c>
       <c r="F19">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19">
-        <v>2</v>
+      <c r="H19" t="s">
+        <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
+      <c r="L19">
         <v>288711.78999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -2216,40 +1775,37 @@
         <v>1183</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="1">
+        <v>22</v>
+      </c>
+      <c r="D20" s="1">
         <v>44846</v>
       </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
       <c r="F20">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20">
-        <v>2</v>
+      <c r="H20" t="s">
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
+      <c r="L20">
         <v>203665.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -2257,40 +1813,37 @@
         <v>1183</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="1">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1">
         <v>44846</v>
       </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
       <c r="F21">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <v>2</v>
+      <c r="H21" t="s">
+        <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
+      <c r="L21">
         <v>199776.1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -2298,40 +1851,37 @@
         <v>1183</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1">
         <v>44874</v>
       </c>
+      <c r="E22">
+        <v>52</v>
+      </c>
       <c r="F22">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>2</v>
+      <c r="H22" t="s">
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M22">
+        <v>15</v>
+      </c>
+      <c r="L22">
         <v>180800</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -2339,40 +1889,37 @@
         <v>1183</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1">
         <v>44846</v>
       </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
       <c r="F23">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="H23">
-        <v>2</v>
+      <c r="H23" t="s">
+        <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" t="s">
-        <v>17</v>
-      </c>
-      <c r="M23">
+        <v>13</v>
+      </c>
+      <c r="L23">
         <v>167309.06</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -2380,40 +1927,37 @@
         <v>1183</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
         <v>44874</v>
       </c>
+      <c r="E24">
+        <v>52</v>
+      </c>
       <c r="F24">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>2</v>
+      <c r="H24" t="s">
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24">
+      <c r="L24">
         <v>159407.79999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -2421,40 +1965,37 @@
         <v>1192</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="1">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1">
         <v>44874</v>
       </c>
+      <c r="E25">
+        <v>52</v>
+      </c>
       <c r="F25">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>2</v>
+      <c r="H25" t="s">
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J25" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25">
+        <v>21</v>
+      </c>
+      <c r="L25">
         <v>462614.3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -2462,40 +2003,37 @@
         <v>1192</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44874</v>
+      </c>
+      <c r="E26">
         <v>52</v>
       </c>
-      <c r="E26" s="1">
-        <v>44874</v>
-      </c>
       <c r="F26">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26">
-        <v>2</v>
+      <c r="H26" t="s">
+        <v>11</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K26" t="s">
         <v>10</v>
       </c>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26">
+      <c r="L26">
         <v>331100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -2503,40 +2041,37 @@
         <v>1570</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" s="1">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1">
         <v>44867</v>
       </c>
+      <c r="E27">
+        <v>59</v>
+      </c>
       <c r="F27">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>2</v>
+      <c r="H27" t="s">
+        <v>28</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L27" t="s">
-        <v>33</v>
-      </c>
-      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="L27">
         <v>798203.9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -2544,40 +2079,37 @@
         <v>1570</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="1">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
         <v>44895</v>
       </c>
+      <c r="E28">
+        <v>31</v>
+      </c>
       <c r="F28">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
         <v>1</v>
       </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="L28">
         <v>776235.1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -2585,40 +2117,37 @@
         <v>1570</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
         <v>44874</v>
       </c>
+      <c r="E29">
+        <v>52</v>
+      </c>
       <c r="F29">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
-      <c r="H29">
-        <v>2</v>
+      <c r="H29" t="s">
+        <v>11</v>
       </c>
       <c r="I29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>10</v>
-      </c>
-      <c r="L29" t="s">
-        <v>33</v>
-      </c>
-      <c r="M29">
+        <v>21</v>
+      </c>
+      <c r="L29">
         <v>712185.9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -2626,40 +2155,37 @@
         <v>1570</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1">
         <v>44874</v>
       </c>
+      <c r="E30">
+        <v>52</v>
+      </c>
       <c r="F30">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
-      <c r="H30">
-        <v>2</v>
+      <c r="H30" t="s">
+        <v>11</v>
       </c>
       <c r="I30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J30" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30">
+        <v>13</v>
+      </c>
+      <c r="L30">
         <v>596032.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -2667,40 +2193,37 @@
         <v>1570</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
         <v>44867</v>
       </c>
+      <c r="E31">
+        <v>59</v>
+      </c>
       <c r="F31">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>2</v>
+      <c r="H31" t="s">
+        <v>11</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J31" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>10</v>
-      </c>
-      <c r="L31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31">
+        <v>21</v>
+      </c>
+      <c r="L31">
         <v>590296.30000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -2708,40 +2231,37 @@
         <v>1570</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
         <v>44874</v>
       </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
       <c r="F32">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>2</v>
       </c>
-      <c r="H32">
-        <v>2</v>
+      <c r="H32" t="s">
+        <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="J32" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>26</v>
-      </c>
-      <c r="L32" t="s">
-        <v>13</v>
-      </c>
-      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="L32">
         <v>557681</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10032</v>
       </c>
@@ -2749,40 +2269,37 @@
         <v>1570</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="1">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1">
         <v>44896</v>
       </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
       <c r="F33">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
         <v>1</v>
       </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
       <c r="I33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33">
+        <v>21</v>
+      </c>
+      <c r="L33">
         <v>508637.43</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10033</v>
       </c>
@@ -2790,40 +2307,37 @@
         <v>1570</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="1">
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
         <v>44874</v>
       </c>
+      <c r="E34">
+        <v>52</v>
+      </c>
       <c r="F34">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>2</v>
       </c>
-      <c r="H34">
-        <v>2</v>
+      <c r="H34" t="s">
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K34" t="s">
         <v>10</v>
       </c>
-      <c r="L34" t="s">
-        <v>13</v>
-      </c>
-      <c r="M34">
+      <c r="L34">
         <v>446225</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10034</v>
       </c>
@@ -2831,40 +2345,37 @@
         <v>1570</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="1">
+        <v>27</v>
+      </c>
+      <c r="D35" s="1">
         <v>44867</v>
       </c>
+      <c r="E35">
+        <v>59</v>
+      </c>
       <c r="F35">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-      <c r="H35">
-        <v>2</v>
+      <c r="H35" t="s">
+        <v>11</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J35" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>10</v>
-      </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="L35">
         <v>437246</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10035</v>
       </c>
@@ -2872,40 +2383,37 @@
         <v>1570</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="1">
+        <v>27</v>
+      </c>
+      <c r="D36" s="1">
         <v>44867</v>
       </c>
+      <c r="E36">
+        <v>59</v>
+      </c>
       <c r="F36">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>2</v>
       </c>
-      <c r="H36">
-        <v>2</v>
+      <c r="H36" t="s">
+        <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K36" t="s">
         <v>10</v>
       </c>
-      <c r="L36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M36">
+      <c r="L36">
         <v>286300</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10036</v>
       </c>
@@ -2913,40 +2421,37 @@
         <v>1570</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="1">
+        <v>27</v>
+      </c>
+      <c r="D37" s="1">
         <v>44846</v>
       </c>
+      <c r="E37">
+        <v>80</v>
+      </c>
       <c r="F37">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37">
-        <v>2</v>
+      <c r="H37" t="s">
+        <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K37" t="s">
         <v>10</v>
       </c>
-      <c r="L37" t="s">
-        <v>13</v>
-      </c>
-      <c r="M37">
+      <c r="L37">
         <v>281068.40000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10037</v>
       </c>
@@ -2954,40 +2459,37 @@
         <v>1570</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="1">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1">
         <v>44846</v>
       </c>
+      <c r="E38">
+        <v>80</v>
+      </c>
       <c r="F38">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-      <c r="H38">
-        <v>2</v>
+      <c r="H38" t="s">
+        <v>11</v>
       </c>
       <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" t="s">
         <v>15</v>
       </c>
-      <c r="J38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K38" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" t="s">
-        <v>20</v>
-      </c>
-      <c r="M38">
+      <c r="L38">
         <v>257612.2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10038</v>
       </c>
@@ -2995,40 +2497,37 @@
         <v>1570</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="1">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1">
         <v>44846</v>
       </c>
+      <c r="E39">
+        <v>80</v>
+      </c>
       <c r="F39">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>2</v>
       </c>
-      <c r="H39">
-        <v>2</v>
+      <c r="H39" t="s">
+        <v>6</v>
       </c>
       <c r="I39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>10</v>
-      </c>
-      <c r="L39" t="s">
-        <v>20</v>
-      </c>
-      <c r="M39">
+        <v>15</v>
+      </c>
+      <c r="L39">
         <v>226388.1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>10039</v>
       </c>
@@ -3036,40 +2535,37 @@
         <v>1570</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="1">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
         <v>44839</v>
       </c>
+      <c r="E40">
+        <v>87</v>
+      </c>
       <c r="F40">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
       </c>
       <c r="I40" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J40" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>10</v>
-      </c>
-      <c r="L40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40">
+        <v>21</v>
+      </c>
+      <c r="L40">
         <v>214480</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>10040</v>
       </c>
@@ -3077,40 +2573,37 @@
         <v>1570</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="1">
+        <v>27</v>
+      </c>
+      <c r="D41" s="1">
         <v>44874</v>
       </c>
+      <c r="E41">
+        <v>52</v>
+      </c>
       <c r="F41">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
-      <c r="H41">
-        <v>2</v>
+      <c r="H41" t="s">
+        <v>11</v>
       </c>
       <c r="I41" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J41" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K41" t="s">
         <v>10</v>
       </c>
-      <c r="L41" t="s">
-        <v>13</v>
-      </c>
-      <c r="M41">
+      <c r="L41">
         <v>209626.5</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>10041</v>
       </c>
@@ -3118,40 +2611,37 @@
         <v>1570</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="1">
+        <v>27</v>
+      </c>
+      <c r="D42" s="1">
         <v>44867</v>
       </c>
+      <c r="E42">
+        <v>59</v>
+      </c>
       <c r="F42">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
-      <c r="H42">
-        <v>2</v>
+      <c r="H42" t="s">
+        <v>11</v>
       </c>
       <c r="I42" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J42" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" t="s">
-        <v>33</v>
-      </c>
-      <c r="M42">
+        <v>21</v>
+      </c>
+      <c r="L42">
         <v>208100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10042</v>
       </c>
@@ -3159,40 +2649,37 @@
         <v>1570</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="1">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1">
         <v>44874</v>
       </c>
+      <c r="E43">
+        <v>52</v>
+      </c>
       <c r="F43">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
-      <c r="H43">
-        <v>2</v>
+      <c r="H43" t="s">
+        <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>10</v>
-      </c>
-      <c r="L43" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="L43">
         <v>198700</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>10043</v>
       </c>
@@ -3200,40 +2687,37 @@
         <v>1570</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="1">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1">
         <v>44860</v>
       </c>
+      <c r="E44">
+        <v>66</v>
+      </c>
       <c r="F44">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>2</v>
       </c>
-      <c r="H44">
-        <v>2</v>
+      <c r="H44" t="s">
+        <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K44" t="s">
         <v>10</v>
       </c>
-      <c r="L44" t="s">
-        <v>13</v>
-      </c>
-      <c r="M44">
+      <c r="L44">
         <v>197600</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10044</v>
       </c>
@@ -3241,40 +2725,37 @@
         <v>1570</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="1">
+        <v>27</v>
+      </c>
+      <c r="D45" s="1">
         <v>44846</v>
       </c>
+      <c r="E45">
+        <v>80</v>
+      </c>
       <c r="F45">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>2</v>
       </c>
-      <c r="H45">
-        <v>2</v>
+      <c r="H45" t="s">
+        <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45">
+        <v>15</v>
+      </c>
+      <c r="L45">
         <v>190400</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10045</v>
       </c>
@@ -3282,40 +2763,37 @@
         <v>1570</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="1">
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
         <v>44895</v>
       </c>
+      <c r="E46">
+        <v>31</v>
+      </c>
       <c r="F46">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
         <v>1</v>
       </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
       <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" t="s">
         <v>15</v>
       </c>
-      <c r="J46" t="s">
-        <v>16</v>
-      </c>
-      <c r="K46" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46">
+      <c r="L46">
         <v>189652.9</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10046</v>
       </c>
@@ -3323,40 +2801,37 @@
         <v>1570</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="1">
+        <v>27</v>
+      </c>
+      <c r="D47" s="1">
         <v>44846</v>
       </c>
+      <c r="E47">
+        <v>80</v>
+      </c>
       <c r="F47">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>2</v>
       </c>
-      <c r="H47">
-        <v>2</v>
+      <c r="H47" t="s">
+        <v>11</v>
       </c>
       <c r="I47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K47" t="s">
         <v>10</v>
       </c>
-      <c r="L47" t="s">
-        <v>13</v>
-      </c>
-      <c r="M47">
+      <c r="L47">
         <v>189434.1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>10047</v>
       </c>
@@ -3364,40 +2839,37 @@
         <v>1570</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="1">
+        <v>27</v>
+      </c>
+      <c r="D48" s="1">
         <v>44895</v>
       </c>
+      <c r="E48">
+        <v>31</v>
+      </c>
       <c r="F48">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>2</v>
-      </c>
-      <c r="H48">
         <v>1</v>
       </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J48" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K48" t="s">
         <v>10</v>
       </c>
-      <c r="L48" t="s">
-        <v>13</v>
-      </c>
-      <c r="M48">
+      <c r="L48">
         <v>176942.6</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>10048</v>
       </c>
@@ -3405,40 +2877,37 @@
         <v>1570</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="1">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1">
         <v>44846</v>
       </c>
+      <c r="E49">
+        <v>80</v>
+      </c>
       <c r="F49">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>2</v>
       </c>
-      <c r="H49">
-        <v>2</v>
+      <c r="H49" t="s">
+        <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J49" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K49" t="s">
         <v>10</v>
       </c>
-      <c r="L49" t="s">
-        <v>13</v>
-      </c>
-      <c r="M49">
+      <c r="L49">
         <v>174984.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10049</v>
       </c>
@@ -3446,40 +2915,37 @@
         <v>1570</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44846</v>
+      </c>
+      <c r="E50">
         <v>80</v>
       </c>
-      <c r="E50" s="1">
-        <v>44846</v>
-      </c>
       <c r="F50">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
-      <c r="H50">
-        <v>2</v>
+      <c r="H50" t="s">
+        <v>11</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J50" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K50" t="s">
         <v>10</v>
       </c>
-      <c r="L50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M50">
+      <c r="L50">
         <v>173855.3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10050</v>
       </c>
@@ -3487,40 +2953,37 @@
         <v>1570</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-      <c r="E51" s="1">
+        <v>27</v>
+      </c>
+      <c r="D51" s="1">
         <v>44846</v>
       </c>
+      <c r="E51">
+        <v>80</v>
+      </c>
       <c r="F51">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>2</v>
       </c>
-      <c r="H51">
-        <v>2</v>
+      <c r="H51" t="s">
+        <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K51" t="s">
         <v>10</v>
       </c>
-      <c r="L51" t="s">
-        <v>13</v>
-      </c>
-      <c r="M51">
+      <c r="L51">
         <v>167464.9</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10051</v>
       </c>
@@ -3528,40 +2991,37 @@
         <v>1570</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" t="s">
-        <v>82</v>
-      </c>
-      <c r="E52" s="1">
+        <v>27</v>
+      </c>
+      <c r="D52" s="1">
         <v>44874</v>
       </c>
+      <c r="E52">
+        <v>52</v>
+      </c>
       <c r="F52">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
-      <c r="H52">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="L52">
         <v>166408.6</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10052</v>
       </c>
@@ -3569,40 +3029,37 @@
         <v>1570</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="1">
+        <v>27</v>
+      </c>
+      <c r="D53" s="1">
         <v>44874</v>
       </c>
+      <c r="E53">
+        <v>52</v>
+      </c>
       <c r="F53">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
-      <c r="H53">
-        <v>2</v>
+      <c r="H53" t="s">
+        <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53">
+        <v>15</v>
+      </c>
+      <c r="L53">
         <v>165438.29999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>10053</v>
       </c>
@@ -3610,40 +3067,37 @@
         <v>1570</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="1">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1">
         <v>44846</v>
       </c>
+      <c r="E54">
+        <v>80</v>
+      </c>
       <c r="F54">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
-      <c r="H54">
-        <v>2</v>
+      <c r="H54" t="s">
+        <v>11</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J54" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>10</v>
-      </c>
-      <c r="L54" t="s">
-        <v>11</v>
-      </c>
-      <c r="M54">
+        <v>9</v>
+      </c>
+      <c r="L54">
         <v>165000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10054</v>
       </c>
@@ -3651,40 +3105,37 @@
         <v>1570</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E55" s="1">
+        <v>27</v>
+      </c>
+      <c r="D55" s="1">
         <v>44875</v>
       </c>
+      <c r="E55">
+        <v>51</v>
+      </c>
       <c r="F55">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
-      <c r="H55">
-        <v>2</v>
+      <c r="H55" t="s">
+        <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J55" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K55" t="s">
         <v>10</v>
       </c>
-      <c r="L55" t="s">
-        <v>13</v>
-      </c>
-      <c r="M55">
+      <c r="L55">
         <v>164857.35999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>10055</v>
       </c>
@@ -3692,40 +3143,37 @@
         <v>1570</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="1">
+        <v>27</v>
+      </c>
+      <c r="D56" s="1">
         <v>44874</v>
       </c>
+      <c r="E56">
+        <v>52</v>
+      </c>
       <c r="F56">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
-      <c r="H56">
-        <v>2</v>
+      <c r="H56" t="s">
+        <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K56" t="s">
-        <v>10</v>
-      </c>
-      <c r="L56" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="L56">
         <v>158300</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10056</v>
       </c>
@@ -3733,40 +3181,37 @@
         <v>1570</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" t="s">
-        <v>87</v>
-      </c>
-      <c r="E57" s="1">
+        <v>27</v>
+      </c>
+      <c r="D57" s="1">
         <v>44874</v>
       </c>
+      <c r="E57">
+        <v>52</v>
+      </c>
       <c r="F57">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
-      <c r="H57">
-        <v>2</v>
+      <c r="H57" t="s">
+        <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K57" t="s">
         <v>10</v>
       </c>
-      <c r="L57" t="s">
-        <v>13</v>
-      </c>
-      <c r="M57">
+      <c r="L57">
         <v>157499.4</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>10057</v>
       </c>
@@ -3774,40 +3219,37 @@
         <v>1570</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
-      </c>
-      <c r="D58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="1">
+        <v>27</v>
+      </c>
+      <c r="D58" s="1">
         <v>44874</v>
       </c>
+      <c r="E58">
+        <v>52</v>
+      </c>
       <c r="F58">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>2</v>
       </c>
-      <c r="H58">
-        <v>2</v>
+      <c r="H58" t="s">
+        <v>11</v>
       </c>
       <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" t="s">
         <v>15</v>
       </c>
-      <c r="J58" t="s">
-        <v>16</v>
-      </c>
-      <c r="K58" t="s">
-        <v>10</v>
-      </c>
-      <c r="L58" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58">
+      <c r="L58">
         <v>151700</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>10058</v>
       </c>
@@ -3815,40 +3257,37 @@
         <v>1635</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="1">
+        <v>31</v>
+      </c>
+      <c r="D59" s="1">
         <v>44874</v>
       </c>
+      <c r="E59">
+        <v>52</v>
+      </c>
       <c r="F59">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>2</v>
       </c>
-      <c r="H59">
-        <v>2</v>
+      <c r="H59" t="s">
+        <v>6</v>
       </c>
       <c r="I59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" t="s">
         <v>10</v>
       </c>
-      <c r="L59" t="s">
-        <v>13</v>
-      </c>
-      <c r="M59">
+      <c r="L59">
         <v>215567</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10059</v>
       </c>
@@ -3856,40 +3295,37 @@
         <v>1635</v>
       </c>
       <c r="C60" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="1">
+        <v>31</v>
+      </c>
+      <c r="D60" s="1">
         <v>44846</v>
       </c>
+      <c r="E60">
+        <v>80</v>
+      </c>
       <c r="F60">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
-      <c r="H60">
-        <v>2</v>
+      <c r="H60" t="s">
+        <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" t="s">
         <v>9</v>
       </c>
-      <c r="K60" t="s">
-        <v>10</v>
-      </c>
-      <c r="L60" t="s">
-        <v>11</v>
-      </c>
-      <c r="M60">
+      <c r="L60">
         <v>178600</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>10060</v>
       </c>
@@ -3897,40 +3333,37 @@
         <v>1635</v>
       </c>
       <c r="C61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" t="s">
-        <v>92</v>
-      </c>
-      <c r="E61" s="1">
+        <v>31</v>
+      </c>
+      <c r="D61" s="1">
         <v>44867</v>
       </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
       <c r="F61">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>2</v>
       </c>
-      <c r="H61">
-        <v>2</v>
+      <c r="H61" t="s">
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J61" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K61" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61">
+        <v>15</v>
+      </c>
+      <c r="L61">
         <v>154100</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10061</v>
       </c>
@@ -3938,40 +3371,37 @@
         <v>1640</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" s="1">
+        <v>32</v>
+      </c>
+      <c r="D62" s="1">
         <v>44846</v>
       </c>
+      <c r="E62">
+        <v>80</v>
+      </c>
       <c r="F62">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G62">
         <v>2</v>
       </c>
-      <c r="H62">
-        <v>2</v>
+      <c r="H62" t="s">
+        <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K62" t="s">
         <v>10</v>
       </c>
-      <c r="L62" t="s">
-        <v>13</v>
-      </c>
-      <c r="M62">
+      <c r="L62">
         <v>152000</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>10062</v>
       </c>
@@ -3979,40 +3409,37 @@
         <v>1660</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="1">
+        <v>33</v>
+      </c>
+      <c r="D63" s="1">
         <v>44846</v>
       </c>
+      <c r="E63">
+        <v>80</v>
+      </c>
       <c r="F63">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>2</v>
       </c>
-      <c r="H63">
-        <v>2</v>
+      <c r="H63" t="s">
+        <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K63" t="s">
         <v>10</v>
       </c>
-      <c r="L63" t="s">
-        <v>13</v>
-      </c>
-      <c r="M63">
+      <c r="L63">
         <v>277811</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>10063</v>
       </c>
@@ -4020,40 +3447,37 @@
         <v>2070</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
-      </c>
-      <c r="D64" t="s">
-        <v>98</v>
-      </c>
-      <c r="E64" s="1">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1">
         <v>44839</v>
       </c>
+      <c r="E64">
+        <v>87</v>
+      </c>
       <c r="F64">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G64">
         <v>2</v>
       </c>
-      <c r="H64">
-        <v>2</v>
+      <c r="H64" t="s">
+        <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>10</v>
-      </c>
-      <c r="L64" t="s">
-        <v>33</v>
-      </c>
-      <c r="M64">
+        <v>21</v>
+      </c>
+      <c r="L64">
         <v>1103900.5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10064</v>
       </c>
@@ -4061,40 +3485,37 @@
         <v>2070</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-      <c r="E65" s="1">
+        <v>34</v>
+      </c>
+      <c r="D65" s="1">
         <v>44896</v>
       </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
       <c r="F65">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65">
         <v>1</v>
       </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
       <c r="I65" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K65" t="s">
-        <v>10</v>
-      </c>
-      <c r="L65" t="s">
-        <v>33</v>
-      </c>
-      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="L65">
         <v>404862.08</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10065</v>
       </c>
@@ -4102,40 +3523,37 @@
         <v>2145</v>
       </c>
       <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="1">
+        <v>35</v>
+      </c>
+      <c r="D66" s="1">
         <v>44874</v>
       </c>
+      <c r="E66">
+        <v>52</v>
+      </c>
       <c r="F66">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
-      <c r="H66">
-        <v>2</v>
+      <c r="H66" t="s">
+        <v>11</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J66" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K66" t="s">
         <v>10</v>
       </c>
-      <c r="L66" t="s">
-        <v>13</v>
-      </c>
-      <c r="M66">
+      <c r="L66">
         <v>165482</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10066</v>
       </c>
@@ -4143,40 +3561,37 @@
         <v>2146</v>
       </c>
       <c r="C67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="1">
+        <v>36</v>
+      </c>
+      <c r="D67" s="1">
         <v>44839</v>
       </c>
+      <c r="E67">
+        <v>87</v>
+      </c>
       <c r="F67">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
-      <c r="H67">
-        <v>2</v>
+      <c r="H67" t="s">
+        <v>11</v>
       </c>
       <c r="I67" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" t="s">
+        <v>8</v>
+      </c>
+      <c r="K67" t="s">
         <v>15</v>
       </c>
-      <c r="J67" t="s">
-        <v>16</v>
-      </c>
-      <c r="K67" t="s">
-        <v>10</v>
-      </c>
-      <c r="L67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67">
+      <c r="L67">
         <v>504075.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10067</v>
       </c>
@@ -4184,40 +3599,37 @@
         <v>2441</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="1">
+        <v>37</v>
+      </c>
+      <c r="D68" s="1">
         <v>44895</v>
       </c>
+      <c r="E68">
+        <v>31</v>
+      </c>
       <c r="F68">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68">
         <v>1</v>
       </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
       <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68" t="s">
         <v>15</v>
       </c>
-      <c r="J68" t="s">
-        <v>16</v>
-      </c>
-      <c r="K68" t="s">
-        <v>10</v>
-      </c>
-      <c r="L68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68">
+      <c r="L68">
         <v>155100</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10068</v>
       </c>
@@ -4225,40 +3637,37 @@
         <v>2472</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E69" s="1">
+        <v>38</v>
+      </c>
+      <c r="D69" s="1">
         <v>44889</v>
       </c>
+      <c r="E69">
+        <v>37</v>
+      </c>
       <c r="F69">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>2</v>
       </c>
-      <c r="H69">
-        <v>2</v>
+      <c r="H69" t="s">
+        <v>11</v>
       </c>
       <c r="I69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J69" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K69" t="s">
-        <v>10</v>
-      </c>
-      <c r="L69" t="s">
-        <v>33</v>
-      </c>
-      <c r="M69">
+        <v>21</v>
+      </c>
+      <c r="L69">
         <v>269954.98</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>10069</v>
       </c>
@@ -4266,40 +3675,37 @@
         <v>2472</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="1">
+        <v>38</v>
+      </c>
+      <c r="D70" s="1">
         <v>44846</v>
       </c>
+      <c r="E70">
+        <v>80</v>
+      </c>
       <c r="F70">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G70">
         <v>2</v>
       </c>
-      <c r="H70">
-        <v>2</v>
+      <c r="H70" t="s">
+        <v>11</v>
       </c>
       <c r="I70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J70" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K70" t="s">
-        <v>10</v>
-      </c>
-      <c r="L70" t="s">
-        <v>17</v>
-      </c>
-      <c r="M70">
+        <v>13</v>
+      </c>
+      <c r="L70">
         <v>242051.20000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10070</v>
       </c>
@@ -4307,40 +3713,37 @@
         <v>2960</v>
       </c>
       <c r="C71" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" t="s">
-        <v>110</v>
-      </c>
-      <c r="E71" s="1">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1">
         <v>44888</v>
       </c>
+      <c r="E71">
+        <v>38</v>
+      </c>
       <c r="F71">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>2</v>
       </c>
-      <c r="H71">
-        <v>2</v>
+      <c r="H71" t="s">
+        <v>40</v>
       </c>
       <c r="I71" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="J71" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="K71" t="s">
-        <v>42</v>
-      </c>
-      <c r="L71" t="s">
-        <v>13</v>
-      </c>
-      <c r="M71">
+        <v>10</v>
+      </c>
+      <c r="L71">
         <v>388531.11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10071</v>
       </c>
@@ -4348,40 +3751,37 @@
         <v>2960</v>
       </c>
       <c r="C72" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" t="s">
-        <v>113</v>
-      </c>
-      <c r="E72" s="1">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1">
         <v>44895</v>
       </c>
+      <c r="E72">
+        <v>31</v>
+      </c>
       <c r="F72">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G72">
-        <v>2</v>
-      </c>
-      <c r="H72">
         <v>1</v>
       </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
       <c r="I72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K72" t="s">
         <v>10</v>
       </c>
-      <c r="L72" t="s">
-        <v>13</v>
-      </c>
-      <c r="M72">
+      <c r="L72">
         <v>257520.3</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10072</v>
       </c>
@@ -4389,40 +3789,37 @@
         <v>2960</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D73" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" s="1">
+        <v>39</v>
+      </c>
+      <c r="D73" s="1">
         <v>44874</v>
       </c>
+      <c r="E73">
+        <v>52</v>
+      </c>
       <c r="F73">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
-      <c r="H73">
-        <v>2</v>
+      <c r="H73" t="s">
+        <v>6</v>
       </c>
       <c r="I73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K73" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="L73">
         <v>210167.9</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10073</v>
       </c>
@@ -4430,40 +3827,37 @@
         <v>2960</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D74" t="s">
-        <v>115</v>
-      </c>
-      <c r="E74" s="1">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1">
         <v>44874</v>
       </c>
+      <c r="E74">
+        <v>52</v>
+      </c>
       <c r="F74">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
-      <c r="H74">
-        <v>2</v>
+      <c r="H74" t="s">
+        <v>11</v>
       </c>
       <c r="I74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J74" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K74" t="s">
         <v>10</v>
       </c>
-      <c r="L74" t="s">
-        <v>13</v>
-      </c>
-      <c r="M74">
+      <c r="L74">
         <v>205844.9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>10074</v>
       </c>
@@ -4471,40 +3865,37 @@
         <v>2960</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="1">
+        <v>39</v>
+      </c>
+      <c r="D75" s="1">
         <v>44846</v>
       </c>
+      <c r="E75">
+        <v>80</v>
+      </c>
       <c r="F75">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
-      <c r="H75">
-        <v>2</v>
+      <c r="H75" t="s">
+        <v>11</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J75" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K75" t="s">
         <v>10</v>
       </c>
-      <c r="L75" t="s">
-        <v>13</v>
-      </c>
-      <c r="M75">
+      <c r="L75">
         <v>167695.79999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>10075</v>
       </c>
@@ -4512,40 +3903,37 @@
         <v>2960</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
-      </c>
-      <c r="D76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E76" s="1">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1">
         <v>44846</v>
       </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
       <c r="F76">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="H76">
-        <v>2</v>
+      <c r="H76" t="s">
+        <v>11</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J76" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K76" t="s">
         <v>10</v>
       </c>
-      <c r="L76" t="s">
-        <v>13</v>
-      </c>
-      <c r="M76">
+      <c r="L76">
         <v>152296.6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10076</v>
       </c>
@@ -4553,40 +3941,37 @@
         <v>3601</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
-      </c>
-      <c r="D77" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" s="1">
+        <v>42</v>
+      </c>
+      <c r="D77" s="1">
         <v>44846</v>
       </c>
+      <c r="E77">
+        <v>80</v>
+      </c>
       <c r="F77">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
-      <c r="H77">
-        <v>2</v>
+      <c r="H77" t="s">
+        <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J77" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K77" t="s">
-        <v>10</v>
-      </c>
-      <c r="L77" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77">
+        <v>13</v>
+      </c>
+      <c r="L77">
         <v>171200</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>10077</v>
       </c>
@@ -4594,40 +3979,37 @@
         <v>3601</v>
       </c>
       <c r="C78" t="s">
-        <v>118</v>
-      </c>
-      <c r="D78" t="s">
-        <v>120</v>
-      </c>
-      <c r="E78" s="1">
+        <v>42</v>
+      </c>
+      <c r="D78" s="1">
         <v>44846</v>
       </c>
+      <c r="E78">
+        <v>80</v>
+      </c>
       <c r="F78">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
-      <c r="H78">
-        <v>2</v>
+      <c r="H78" t="s">
+        <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K78" t="s">
         <v>10</v>
       </c>
-      <c r="L78" t="s">
-        <v>13</v>
-      </c>
-      <c r="M78">
+      <c r="L78">
         <v>167150.6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>10078</v>
       </c>
@@ -4635,40 +4017,37 @@
         <v>3601</v>
       </c>
       <c r="C79" t="s">
-        <v>118</v>
-      </c>
-      <c r="D79" t="s">
-        <v>121</v>
-      </c>
-      <c r="E79" s="1">
+        <v>42</v>
+      </c>
+      <c r="D79" s="1">
         <v>44874</v>
       </c>
+      <c r="E79">
+        <v>52</v>
+      </c>
       <c r="F79">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
-      <c r="H79">
-        <v>2</v>
+      <c r="H79" t="s">
+        <v>11</v>
       </c>
       <c r="I79" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" t="s">
+        <v>8</v>
+      </c>
+      <c r="K79" t="s">
         <v>15</v>
       </c>
-      <c r="J79" t="s">
-        <v>16</v>
-      </c>
-      <c r="K79" t="s">
-        <v>10</v>
-      </c>
-      <c r="L79" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79">
+      <c r="L79">
         <v>152785.29999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10079</v>
       </c>
@@ -4676,40 +4055,37 @@
         <v>3722</v>
       </c>
       <c r="C80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="1">
+        <v>43</v>
+      </c>
+      <c r="D80" s="1">
         <v>44867</v>
       </c>
+      <c r="E80">
+        <v>59</v>
+      </c>
       <c r="F80">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
-      <c r="H80">
-        <v>2</v>
+      <c r="H80" t="s">
+        <v>11</v>
       </c>
       <c r="I80" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J80" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K80" t="s">
         <v>10</v>
       </c>
-      <c r="L80" t="s">
-        <v>13</v>
-      </c>
-      <c r="M80">
+      <c r="L80">
         <v>570216.19999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10080</v>
       </c>
@@ -4717,40 +4093,37 @@
         <v>3722</v>
       </c>
       <c r="C81" t="s">
-        <v>122</v>
-      </c>
-      <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="1">
+        <v>43</v>
+      </c>
+      <c r="D81" s="1">
         <v>44888</v>
       </c>
+      <c r="E81">
+        <v>38</v>
+      </c>
       <c r="F81">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>2</v>
       </c>
-      <c r="H81">
-        <v>2</v>
+      <c r="H81" t="s">
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J81" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K81" t="s">
-        <v>10</v>
-      </c>
-      <c r="L81" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81">
+        <v>15</v>
+      </c>
+      <c r="L81">
         <v>237500</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10081</v>
       </c>
@@ -4758,40 +4131,37 @@
         <v>3722</v>
       </c>
       <c r="C82" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" s="1">
+        <v>43</v>
+      </c>
+      <c r="D82" s="1">
         <v>44869</v>
       </c>
+      <c r="E82">
+        <v>57</v>
+      </c>
       <c r="F82">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="G82">
         <v>2</v>
       </c>
-      <c r="H82">
-        <v>2</v>
+      <c r="H82" t="s">
+        <v>11</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J82" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K82" t="s">
-        <v>10</v>
-      </c>
-      <c r="L82" t="s">
-        <v>33</v>
-      </c>
-      <c r="M82">
+        <v>21</v>
+      </c>
+      <c r="L82">
         <v>196642.98</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10082</v>
       </c>
@@ -4799,40 +4169,37 @@
         <v>3722</v>
       </c>
       <c r="C83" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" s="1">
+        <v>43</v>
+      </c>
+      <c r="D83" s="1">
         <v>44846</v>
       </c>
+      <c r="E83">
+        <v>80</v>
+      </c>
       <c r="F83">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
-      <c r="H83">
-        <v>2</v>
+      <c r="H83" t="s">
+        <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K83" t="s">
-        <v>10</v>
-      </c>
-      <c r="L83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83">
+        <v>15</v>
+      </c>
+      <c r="L83">
         <v>175600</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10083</v>
       </c>
@@ -4840,40 +4207,37 @@
         <v>3750</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="1">
+        <v>44</v>
+      </c>
+      <c r="D84" s="1">
         <v>44839</v>
       </c>
+      <c r="E84">
+        <v>87</v>
+      </c>
       <c r="F84">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
-      <c r="H84">
-        <v>2</v>
+      <c r="H84" t="s">
+        <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J84" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K84" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" t="s">
-        <v>33</v>
-      </c>
-      <c r="M84">
+        <v>21</v>
+      </c>
+      <c r="L84">
         <v>798919.8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10084</v>
       </c>
@@ -4881,40 +4245,37 @@
         <v>3750</v>
       </c>
       <c r="C85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D85" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="1">
+        <v>44</v>
+      </c>
+      <c r="D85" s="1">
         <v>44867</v>
       </c>
+      <c r="E85">
+        <v>59</v>
+      </c>
       <c r="F85">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G85">
         <v>2</v>
       </c>
-      <c r="H85">
-        <v>2</v>
+      <c r="H85" t="s">
+        <v>6</v>
       </c>
       <c r="I85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K85" t="s">
-        <v>10</v>
-      </c>
-      <c r="L85" t="s">
-        <v>33</v>
-      </c>
-      <c r="M85">
+        <v>21</v>
+      </c>
+      <c r="L85">
         <v>298581.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>10085</v>
       </c>
@@ -4922,40 +4283,37 @@
         <v>3750</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
-      </c>
-      <c r="D86" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="1">
+        <v>44</v>
+      </c>
+      <c r="D86" s="1">
         <v>44839</v>
       </c>
+      <c r="E86">
+        <v>87</v>
+      </c>
       <c r="F86">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>2</v>
       </c>
-      <c r="H86">
-        <v>2</v>
+      <c r="H86" t="s">
+        <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J86" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K86" t="s">
-        <v>10</v>
-      </c>
-      <c r="L86" t="s">
-        <v>17</v>
-      </c>
-      <c r="M86">
+        <v>13</v>
+      </c>
+      <c r="L86">
         <v>168899.20000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10086</v>
       </c>
@@ -4963,40 +4321,37 @@
         <v>3761</v>
       </c>
       <c r="C87" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="1">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1">
         <v>44846</v>
       </c>
+      <c r="E87">
+        <v>80</v>
+      </c>
       <c r="F87">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
-      <c r="H87">
-        <v>2</v>
+      <c r="H87" t="s">
+        <v>6</v>
       </c>
       <c r="I87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K87" t="s">
         <v>10</v>
       </c>
-      <c r="L87" t="s">
-        <v>13</v>
-      </c>
-      <c r="M87">
+      <c r="L87">
         <v>154022.39999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10087</v>
       </c>
@@ -5004,40 +4359,37 @@
         <v>9201</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D88" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="1">
+        <v>46</v>
+      </c>
+      <c r="D88" s="1">
         <v>44874</v>
       </c>
+      <c r="E88">
+        <v>52</v>
+      </c>
       <c r="F88">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
-      <c r="H88">
-        <v>2</v>
+      <c r="H88" t="s">
+        <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K88" t="s">
         <v>10</v>
       </c>
-      <c r="L88" t="s">
-        <v>13</v>
-      </c>
-      <c r="M88">
+      <c r="L88">
         <v>667106.19999999995</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10088</v>
       </c>
@@ -5045,40 +4397,37 @@
         <v>9201</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="1">
+        <v>46</v>
+      </c>
+      <c r="D89" s="1">
         <v>44867</v>
       </c>
+      <c r="E89">
+        <v>59</v>
+      </c>
       <c r="F89">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>2</v>
       </c>
-      <c r="H89">
-        <v>2</v>
+      <c r="H89" t="s">
+        <v>11</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J89" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K89" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" t="s">
-        <v>33</v>
-      </c>
-      <c r="M89">
+        <v>21</v>
+      </c>
+      <c r="L89">
         <v>328836.40000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>10089</v>
       </c>
@@ -5086,40 +4435,37 @@
         <v>9201</v>
       </c>
       <c r="C90" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="1">
+        <v>46</v>
+      </c>
+      <c r="D90" s="1">
         <v>44839</v>
       </c>
+      <c r="E90">
+        <v>87</v>
+      </c>
       <c r="F90">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
-      <c r="H90">
-        <v>2</v>
+      <c r="H90" t="s">
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J90" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K90" t="s">
-        <v>10</v>
-      </c>
-      <c r="L90" t="s">
-        <v>20</v>
-      </c>
-      <c r="M90">
+        <v>15</v>
+      </c>
+      <c r="L90">
         <v>274500</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10090</v>
       </c>
@@ -5127,40 +4473,37 @@
         <v>9201</v>
       </c>
       <c r="C91" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" s="1">
+        <v>46</v>
+      </c>
+      <c r="D91" s="1">
         <v>44874</v>
       </c>
+      <c r="E91">
+        <v>52</v>
+      </c>
       <c r="F91">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
-      <c r="H91">
-        <v>2</v>
+      <c r="H91" t="s">
+        <v>6</v>
       </c>
       <c r="I91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K91" t="s">
         <v>10</v>
       </c>
-      <c r="L91" t="s">
-        <v>13</v>
-      </c>
-      <c r="M91">
+      <c r="L91">
         <v>272642.09999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10091</v>
       </c>
@@ -5168,40 +4511,37 @@
         <v>9201</v>
       </c>
       <c r="C92" t="s">
-        <v>133</v>
-      </c>
-      <c r="D92" t="s">
-        <v>138</v>
-      </c>
-      <c r="E92" s="1">
+        <v>46</v>
+      </c>
+      <c r="D92" s="1">
         <v>44846</v>
       </c>
+      <c r="E92">
+        <v>80</v>
+      </c>
       <c r="F92">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G92">
         <v>2</v>
       </c>
-      <c r="H92">
-        <v>2</v>
+      <c r="H92" t="s">
+        <v>11</v>
       </c>
       <c r="I92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K92" t="s">
         <v>15</v>
       </c>
-      <c r="J92" t="s">
-        <v>16</v>
-      </c>
-      <c r="K92" t="s">
-        <v>10</v>
-      </c>
-      <c r="L92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92">
+      <c r="L92">
         <v>195129.8</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10092</v>
       </c>
@@ -5209,40 +4549,37 @@
         <v>9201</v>
       </c>
       <c r="C93" t="s">
-        <v>133</v>
-      </c>
-      <c r="D93" t="s">
-        <v>139</v>
-      </c>
-      <c r="E93" s="1">
+        <v>46</v>
+      </c>
+      <c r="D93" s="1">
         <v>44874</v>
       </c>
+      <c r="E93">
+        <v>52</v>
+      </c>
       <c r="F93">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
-      <c r="H93">
-        <v>2</v>
+      <c r="H93" t="s">
+        <v>11</v>
       </c>
       <c r="I93" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J93" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K93" t="s">
         <v>10</v>
       </c>
-      <c r="L93" t="s">
-        <v>13</v>
-      </c>
-      <c r="M93">
+      <c r="L93">
         <v>194863.9</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>10093</v>
       </c>
@@ -5250,40 +4587,37 @@
         <v>9201</v>
       </c>
       <c r="C94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" s="1">
+        <v>46</v>
+      </c>
+      <c r="D94" s="1">
         <v>44838</v>
       </c>
+      <c r="E94">
+        <v>88</v>
+      </c>
       <c r="F94">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>2</v>
       </c>
-      <c r="H94">
-        <v>2</v>
+      <c r="H94" t="s">
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J94" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K94" t="s">
-        <v>10</v>
-      </c>
-      <c r="L94" t="s">
-        <v>20</v>
-      </c>
-      <c r="M94">
+        <v>15</v>
+      </c>
+      <c r="L94">
         <v>187406.99</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10094</v>
       </c>
@@ -5291,40 +4625,37 @@
         <v>9201</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
-      </c>
-      <c r="D95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E95" s="1">
+        <v>46</v>
+      </c>
+      <c r="D95" s="1">
         <v>44874</v>
       </c>
+      <c r="E95">
+        <v>52</v>
+      </c>
       <c r="F95">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
-      <c r="H95">
-        <v>2</v>
+      <c r="H95" t="s">
+        <v>6</v>
       </c>
       <c r="I95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K95" t="s">
         <v>10</v>
       </c>
-      <c r="L95" t="s">
-        <v>13</v>
-      </c>
-      <c r="M95">
+      <c r="L95">
         <v>166343.6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10095</v>
       </c>
@@ -5332,40 +4663,37 @@
         <v>9201</v>
       </c>
       <c r="C96" t="s">
-        <v>133</v>
-      </c>
-      <c r="D96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" s="1">
+        <v>46</v>
+      </c>
+      <c r="D96" s="1">
         <v>44846</v>
       </c>
+      <c r="E96">
+        <v>80</v>
+      </c>
       <c r="F96">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
-      <c r="H96">
-        <v>2</v>
+      <c r="H96" t="s">
+        <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K96" t="s">
-        <v>10</v>
-      </c>
-      <c r="L96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96">
+        <v>15</v>
+      </c>
+      <c r="L96">
         <v>163791.20000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10096</v>
       </c>
@@ -5373,40 +4701,37 @@
         <v>9201</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
-      </c>
-      <c r="D97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E97" s="1">
+        <v>46</v>
+      </c>
+      <c r="D97" s="1">
         <v>44874</v>
       </c>
+      <c r="E97">
+        <v>52</v>
+      </c>
       <c r="F97">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
-      <c r="H97">
-        <v>2</v>
+      <c r="H97" t="s">
+        <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K97" t="s">
         <v>10</v>
       </c>
-      <c r="L97" t="s">
-        <v>13</v>
-      </c>
-      <c r="M97">
+      <c r="L97">
         <v>161062.79999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10097</v>
       </c>
@@ -5414,40 +4739,37 @@
         <v>9202</v>
       </c>
       <c r="C98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="1">
+        <v>47</v>
+      </c>
+      <c r="D98" s="1">
         <v>44839</v>
       </c>
+      <c r="E98">
+        <v>87</v>
+      </c>
       <c r="F98">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
-      <c r="H98">
-        <v>2</v>
+      <c r="H98" t="s">
+        <v>11</v>
       </c>
       <c r="I98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J98" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K98" t="s">
         <v>10</v>
       </c>
-      <c r="L98" t="s">
-        <v>13</v>
-      </c>
-      <c r="M98">
+      <c r="L98">
         <v>337829.1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>10098</v>
       </c>
@@ -5455,40 +4777,37 @@
         <v>9202</v>
       </c>
       <c r="C99" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" s="1">
+        <v>47</v>
+      </c>
+      <c r="D99" s="1">
         <v>44839</v>
       </c>
+      <c r="E99">
+        <v>87</v>
+      </c>
       <c r="F99">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G99">
         <v>2</v>
       </c>
-      <c r="H99">
-        <v>2</v>
+      <c r="H99" t="s">
+        <v>11</v>
       </c>
       <c r="I99" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J99" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K99" t="s">
-        <v>10</v>
-      </c>
-      <c r="L99" t="s">
-        <v>33</v>
-      </c>
-      <c r="M99">
+        <v>21</v>
+      </c>
+      <c r="L99">
         <v>310435.20000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>10099</v>
       </c>
@@ -5496,40 +4815,37 @@
         <v>9202</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" t="s">
-        <v>147</v>
-      </c>
-      <c r="E100" s="1">
+        <v>47</v>
+      </c>
+      <c r="D100" s="1">
         <v>44874</v>
       </c>
+      <c r="E100">
+        <v>52</v>
+      </c>
       <c r="F100">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G100">
         <v>2</v>
       </c>
-      <c r="H100">
-        <v>2</v>
+      <c r="H100" t="s">
+        <v>11</v>
       </c>
       <c r="I100" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J100" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K100" t="s">
         <v>10</v>
       </c>
-      <c r="L100" t="s">
-        <v>13</v>
-      </c>
-      <c r="M100">
+      <c r="L100">
         <v>264080.8</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10100</v>
       </c>
@@ -5537,40 +4853,37 @@
         <v>9204</v>
       </c>
       <c r="C101" t="s">
-        <v>148</v>
-      </c>
-      <c r="D101" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="1">
+        <v>48</v>
+      </c>
+      <c r="D101" s="1">
         <v>44874</v>
       </c>
+      <c r="E101">
+        <v>52</v>
+      </c>
       <c r="F101">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>49</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="J101" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="K101" t="s">
-        <v>152</v>
-      </c>
-      <c r="L101" t="s">
-        <v>13</v>
-      </c>
-      <c r="M101">
+        <v>10</v>
+      </c>
+      <c r="L101">
         <v>518705.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10101</v>
       </c>
@@ -5578,40 +4891,37 @@
         <v>9204</v>
       </c>
       <c r="C102" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="1">
+        <v>48</v>
+      </c>
+      <c r="D102" s="1">
         <v>44874</v>
       </c>
+      <c r="E102">
+        <v>52</v>
+      </c>
       <c r="F102">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>2</v>
       </c>
-      <c r="H102">
-        <v>2</v>
+      <c r="H102" t="s">
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K102" t="s">
-        <v>10</v>
-      </c>
-      <c r="L102" t="s">
-        <v>20</v>
-      </c>
-      <c r="M102">
+        <v>15</v>
+      </c>
+      <c r="L102">
         <v>194400</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10102</v>
       </c>
@@ -5619,40 +4929,37 @@
         <v>9204</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" s="1">
+        <v>48</v>
+      </c>
+      <c r="D103" s="1">
         <v>44874</v>
       </c>
+      <c r="E103">
+        <v>52</v>
+      </c>
       <c r="F103">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G103">
         <v>2</v>
       </c>
-      <c r="H103">
-        <v>2</v>
+      <c r="H103" t="s">
+        <v>11</v>
       </c>
       <c r="I103" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J103" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K103" t="s">
         <v>10</v>
       </c>
-      <c r="L103" t="s">
-        <v>13</v>
-      </c>
-      <c r="M103">
+      <c r="L103">
         <v>155465.5</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10103</v>
       </c>
@@ -5660,40 +4967,37 @@
         <v>9204</v>
       </c>
       <c r="C104" t="s">
-        <v>148</v>
-      </c>
-      <c r="D104" t="s">
-        <v>155</v>
-      </c>
-      <c r="E104" s="1">
+        <v>48</v>
+      </c>
+      <c r="D104" s="1">
         <v>44846</v>
       </c>
+      <c r="E104">
+        <v>80</v>
+      </c>
       <c r="F104">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>2</v>
       </c>
-      <c r="H104">
-        <v>2</v>
+      <c r="H104" t="s">
+        <v>11</v>
       </c>
       <c r="I104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J104" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K104" t="s">
         <v>10</v>
       </c>
-      <c r="L104" t="s">
-        <v>13</v>
-      </c>
-      <c r="M104">
+      <c r="L104">
         <v>152427.4</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10104</v>
       </c>
@@ -5701,40 +5005,37 @@
         <v>9204</v>
       </c>
       <c r="C105" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" t="s">
-        <v>156</v>
-      </c>
-      <c r="E105" s="1">
+        <v>48</v>
+      </c>
+      <c r="D105" s="1">
         <v>44846</v>
       </c>
+      <c r="E105">
+        <v>80</v>
+      </c>
       <c r="F105">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
-      <c r="H105">
-        <v>2</v>
+      <c r="H105" t="s">
+        <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K105" t="s">
         <v>10</v>
       </c>
-      <c r="L105" t="s">
-        <v>13</v>
-      </c>
-      <c r="M105">
+      <c r="L105">
         <v>150099.82999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10105</v>
       </c>
@@ -5742,40 +5043,37 @@
         <v>9205</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" s="1">
+        <v>52</v>
+      </c>
+      <c r="D106" s="1">
         <v>44853</v>
       </c>
+      <c r="E106">
+        <v>73</v>
+      </c>
       <c r="F106">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="G106">
         <v>2</v>
       </c>
-      <c r="H106">
-        <v>2</v>
+      <c r="H106" t="s">
+        <v>11</v>
       </c>
       <c r="I106" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J106" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K106" t="s">
         <v>10</v>
       </c>
-      <c r="L106" t="s">
-        <v>13</v>
-      </c>
-      <c r="M106">
+      <c r="L106">
         <v>267745.3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>10106</v>
       </c>
@@ -5783,40 +5081,37 @@
         <v>9205</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
-      </c>
-      <c r="D107" t="s">
-        <v>159</v>
-      </c>
-      <c r="E107" s="1">
+        <v>52</v>
+      </c>
+      <c r="D107" s="1">
         <v>44874</v>
       </c>
+      <c r="E107">
+        <v>52</v>
+      </c>
       <c r="F107">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>2</v>
       </c>
-      <c r="H107">
-        <v>2</v>
+      <c r="H107" t="s">
+        <v>11</v>
       </c>
       <c r="I107" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J107" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K107" t="s">
         <v>10</v>
       </c>
-      <c r="L107" t="s">
-        <v>13</v>
-      </c>
-      <c r="M107">
+      <c r="L107">
         <v>248800</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10107</v>
       </c>
@@ -5824,40 +5119,37 @@
         <v>9205</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
-      </c>
-      <c r="D108" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" s="1">
+        <v>52</v>
+      </c>
+      <c r="D108" s="1">
         <v>44874</v>
       </c>
+      <c r="E108">
+        <v>52</v>
+      </c>
       <c r="F108">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <v>2</v>
       </c>
-      <c r="H108">
-        <v>2</v>
+      <c r="H108" t="s">
+        <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K108" t="s">
         <v>10</v>
       </c>
-      <c r="L108" t="s">
-        <v>13</v>
-      </c>
-      <c r="M108">
+      <c r="L108">
         <v>227777.1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10108</v>
       </c>
@@ -5865,40 +5157,37 @@
         <v>9205</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" s="1">
+        <v>52</v>
+      </c>
+      <c r="D109" s="1">
         <v>44846</v>
       </c>
+      <c r="E109">
+        <v>80</v>
+      </c>
       <c r="F109">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G109">
         <v>2</v>
       </c>
-      <c r="H109">
-        <v>2</v>
+      <c r="H109" t="s">
+        <v>6</v>
       </c>
       <c r="I109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K109" t="s">
         <v>10</v>
       </c>
-      <c r="L109" t="s">
-        <v>13</v>
-      </c>
-      <c r="M109">
+      <c r="L109">
         <v>212048.1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>10109</v>
       </c>
@@ -5906,40 +5195,37 @@
         <v>9205</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" t="s">
-        <v>162</v>
-      </c>
-      <c r="E110" s="1">
+        <v>52</v>
+      </c>
+      <c r="D110" s="1">
         <v>44860</v>
       </c>
+      <c r="E110">
+        <v>66</v>
+      </c>
       <c r="F110">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G110">
         <v>2</v>
       </c>
-      <c r="H110">
-        <v>2</v>
+      <c r="H110" t="s">
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J110" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K110" t="s">
-        <v>10</v>
-      </c>
-      <c r="L110" t="s">
-        <v>20</v>
-      </c>
-      <c r="M110">
+        <v>15</v>
+      </c>
+      <c r="L110">
         <v>210700</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10110</v>
       </c>
@@ -5947,40 +5233,37 @@
         <v>9205</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
-      </c>
-      <c r="D111" t="s">
-        <v>163</v>
-      </c>
-      <c r="E111" s="1">
+        <v>52</v>
+      </c>
+      <c r="D111" s="1">
         <v>44846</v>
       </c>
+      <c r="E111">
+        <v>80</v>
+      </c>
       <c r="F111">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G111">
         <v>2</v>
       </c>
-      <c r="H111">
-        <v>2</v>
+      <c r="H111" t="s">
+        <v>6</v>
       </c>
       <c r="I111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K111" t="s">
         <v>10</v>
       </c>
-      <c r="L111" t="s">
-        <v>13</v>
-      </c>
-      <c r="M111">
+      <c r="L111">
         <v>206811.5</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>10111</v>
       </c>
@@ -5988,40 +5271,37 @@
         <v>9205</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D112" t="s">
-        <v>164</v>
-      </c>
-      <c r="E112" s="1">
+        <v>52</v>
+      </c>
+      <c r="D112" s="1">
         <v>44876</v>
       </c>
+      <c r="E112">
+        <v>50</v>
+      </c>
       <c r="F112">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G112">
         <v>2</v>
       </c>
-      <c r="H112">
-        <v>2</v>
+      <c r="H112" t="s">
+        <v>11</v>
       </c>
       <c r="I112" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J112" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K112" t="s">
         <v>10</v>
       </c>
-      <c r="L112" t="s">
-        <v>13</v>
-      </c>
-      <c r="M112">
+      <c r="L112">
         <v>205005.19</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10112</v>
       </c>
@@ -6029,40 +5309,37 @@
         <v>9205</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
-      </c>
-      <c r="D113" t="s">
-        <v>165</v>
-      </c>
-      <c r="E113" s="1">
+        <v>52</v>
+      </c>
+      <c r="D113" s="1">
         <v>44846</v>
       </c>
+      <c r="E113">
+        <v>80</v>
+      </c>
       <c r="F113">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G113">
         <v>2</v>
       </c>
-      <c r="H113">
-        <v>2</v>
+      <c r="H113" t="s">
+        <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K113" t="s">
         <v>10</v>
       </c>
-      <c r="L113" t="s">
-        <v>13</v>
-      </c>
-      <c r="M113">
+      <c r="L113">
         <v>186900.65</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10113</v>
       </c>
@@ -6070,40 +5347,37 @@
         <v>9205</v>
       </c>
       <c r="C114" t="s">
-        <v>157</v>
-      </c>
-      <c r="D114" t="s">
-        <v>166</v>
-      </c>
-      <c r="E114" s="1">
+        <v>52</v>
+      </c>
+      <c r="D114" s="1">
         <v>44846</v>
       </c>
+      <c r="E114">
+        <v>80</v>
+      </c>
       <c r="F114">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G114">
         <v>2</v>
       </c>
-      <c r="H114">
-        <v>2</v>
+      <c r="H114" t="s">
+        <v>6</v>
       </c>
       <c r="I114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K114" t="s">
         <v>10</v>
       </c>
-      <c r="L114" t="s">
-        <v>13</v>
-      </c>
-      <c r="M114">
+      <c r="L114">
         <v>175474.54</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>10114</v>
       </c>
@@ -6111,40 +5385,37 @@
         <v>9205</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
-      </c>
-      <c r="D115" t="s">
-        <v>167</v>
-      </c>
-      <c r="E115" s="1">
+        <v>52</v>
+      </c>
+      <c r="D115" s="1">
         <v>44874</v>
       </c>
+      <c r="E115">
+        <v>52</v>
+      </c>
       <c r="F115">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>2</v>
       </c>
-      <c r="H115">
-        <v>2</v>
+      <c r="H115" t="s">
+        <v>11</v>
       </c>
       <c r="I115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J115" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K115" t="s">
         <v>10</v>
       </c>
-      <c r="L115" t="s">
-        <v>13</v>
-      </c>
-      <c r="M115">
+      <c r="L115">
         <v>165458.70000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10115</v>
       </c>
@@ -6152,40 +5423,37 @@
         <v>9205</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
-      </c>
-      <c r="D116" t="s">
-        <v>168</v>
-      </c>
-      <c r="E116" s="1">
+        <v>52</v>
+      </c>
+      <c r="D116" s="1">
         <v>44846</v>
       </c>
+      <c r="E116">
+        <v>80</v>
+      </c>
       <c r="F116">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G116">
         <v>2</v>
       </c>
-      <c r="H116">
-        <v>2</v>
+      <c r="H116" t="s">
+        <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K116" t="s">
-        <v>10</v>
-      </c>
-      <c r="L116" t="s">
-        <v>20</v>
-      </c>
-      <c r="M116">
+        <v>15</v>
+      </c>
+      <c r="L116">
         <v>157300</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10116</v>
       </c>
@@ -6193,40 +5461,37 @@
         <v>9205</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" t="s">
-        <v>169</v>
-      </c>
-      <c r="E117" s="1">
+        <v>52</v>
+      </c>
+      <c r="D117" s="1">
         <v>44846</v>
       </c>
+      <c r="E117">
+        <v>80</v>
+      </c>
       <c r="F117">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G117">
         <v>2</v>
       </c>
-      <c r="H117">
-        <v>2</v>
+      <c r="H117" t="s">
+        <v>6</v>
       </c>
       <c r="I117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K117" t="s">
         <v>10</v>
       </c>
-      <c r="L117" t="s">
-        <v>13</v>
-      </c>
-      <c r="M117">
+      <c r="L117">
         <v>155000</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>10117</v>
       </c>
@@ -6234,40 +5499,37 @@
         <v>9205</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
-      </c>
-      <c r="D118" t="s">
-        <v>170</v>
-      </c>
-      <c r="E118" s="1">
+        <v>52</v>
+      </c>
+      <c r="D118" s="1">
         <v>44874</v>
       </c>
+      <c r="E118">
+        <v>52</v>
+      </c>
       <c r="F118">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G118">
         <v>2</v>
       </c>
-      <c r="H118">
-        <v>2</v>
+      <c r="H118" t="s">
+        <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K118" t="s">
         <v>10</v>
       </c>
-      <c r="L118" t="s">
-        <v>13</v>
-      </c>
-      <c r="M118">
+      <c r="L118">
         <v>150300</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10118</v>
       </c>
@@ -6275,40 +5537,37 @@
         <v>9226</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
-      </c>
-      <c r="D119" t="s">
-        <v>172</v>
-      </c>
-      <c r="E119" s="1">
+        <v>53</v>
+      </c>
+      <c r="D119" s="1">
         <v>44867</v>
       </c>
+      <c r="E119">
+        <v>59</v>
+      </c>
       <c r="F119">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G119">
         <v>2</v>
       </c>
-      <c r="H119">
-        <v>2</v>
+      <c r="H119" t="s">
+        <v>11</v>
       </c>
       <c r="I119" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J119" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K119" t="s">
-        <v>10</v>
-      </c>
-      <c r="L119" t="s">
-        <v>33</v>
-      </c>
-      <c r="M119">
+        <v>21</v>
+      </c>
+      <c r="L119">
         <v>306806</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10119</v>
       </c>
@@ -6316,40 +5575,37 @@
         <v>9226</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
-      </c>
-      <c r="D120" t="s">
-        <v>173</v>
-      </c>
-      <c r="E120" s="1">
+        <v>53</v>
+      </c>
+      <c r="D120" s="1">
         <v>44896</v>
       </c>
+      <c r="E120">
+        <v>30</v>
+      </c>
       <c r="F120">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120">
         <v>1</v>
       </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J120" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K120" t="s">
-        <v>10</v>
-      </c>
-      <c r="L120" t="s">
-        <v>33</v>
-      </c>
-      <c r="M120">
+        <v>21</v>
+      </c>
+      <c r="L120">
         <v>257806.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10120</v>
       </c>
@@ -6357,40 +5613,37 @@
         <v>9226</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
-      </c>
-      <c r="D121" t="s">
-        <v>174</v>
-      </c>
-      <c r="E121" s="1">
+        <v>53</v>
+      </c>
+      <c r="D121" s="1">
         <v>44867</v>
       </c>
+      <c r="E121">
+        <v>59</v>
+      </c>
       <c r="F121">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G121">
         <v>2</v>
       </c>
-      <c r="H121">
-        <v>2</v>
+      <c r="H121" t="s">
+        <v>11</v>
       </c>
       <c r="I121" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J121" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K121" t="s">
         <v>10</v>
       </c>
-      <c r="L121" t="s">
-        <v>13</v>
-      </c>
-      <c r="M121">
+      <c r="L121">
         <v>244554.2</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>10121</v>
       </c>
@@ -6398,40 +5651,37 @@
         <v>9226</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
-      </c>
-      <c r="D122" t="s">
-        <v>175</v>
-      </c>
-      <c r="E122" s="1">
+        <v>53</v>
+      </c>
+      <c r="D122" s="1">
         <v>44874</v>
       </c>
+      <c r="E122">
+        <v>52</v>
+      </c>
       <c r="F122">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
-      <c r="H122">
-        <v>2</v>
+      <c r="H122" t="s">
+        <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K122" t="s">
-        <v>10</v>
-      </c>
-      <c r="L122" t="s">
-        <v>20</v>
-      </c>
-      <c r="M122">
+        <v>15</v>
+      </c>
+      <c r="L122">
         <v>153143.41</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>10122</v>
       </c>
@@ -6439,40 +5689,37 @@
         <v>9261</v>
       </c>
       <c r="C123" t="s">
-        <v>176</v>
-      </c>
-      <c r="D123" t="s">
-        <v>177</v>
-      </c>
-      <c r="E123" s="1">
+        <v>54</v>
+      </c>
+      <c r="D123" s="1">
         <v>44859</v>
       </c>
+      <c r="E123">
+        <v>67</v>
+      </c>
       <c r="F123">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="G123">
         <v>2</v>
       </c>
-      <c r="H123">
-        <v>2</v>
+      <c r="H123" t="s">
+        <v>55</v>
       </c>
       <c r="I123" t="s">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="J123" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="K123" t="s">
-        <v>42</v>
-      </c>
-      <c r="L123" t="s">
-        <v>13</v>
-      </c>
-      <c r="M123">
+        <v>10</v>
+      </c>
+      <c r="L123">
         <v>720633.76</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10123</v>
       </c>
@@ -6480,40 +5727,37 @@
         <v>9261</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
-      </c>
-      <c r="D124" t="s">
-        <v>180</v>
-      </c>
-      <c r="E124" s="1">
+        <v>54</v>
+      </c>
+      <c r="D124" s="1">
         <v>44874</v>
       </c>
+      <c r="E124">
+        <v>52</v>
+      </c>
       <c r="F124">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G124">
         <v>2</v>
       </c>
-      <c r="H124">
-        <v>2</v>
+      <c r="H124" t="s">
+        <v>11</v>
       </c>
       <c r="I124" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" t="s">
+        <v>8</v>
+      </c>
+      <c r="K124" t="s">
         <v>15</v>
       </c>
-      <c r="J124" t="s">
-        <v>16</v>
-      </c>
-      <c r="K124" t="s">
-        <v>10</v>
-      </c>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M124">
+      <c r="L124">
         <v>175400</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>10124</v>
       </c>
@@ -6521,40 +5765,37 @@
         <v>9261</v>
       </c>
       <c r="C125" t="s">
-        <v>176</v>
-      </c>
-      <c r="D125" t="s">
-        <v>181</v>
-      </c>
-      <c r="E125" s="1">
+        <v>54</v>
+      </c>
+      <c r="D125" s="1">
         <v>44874</v>
       </c>
+      <c r="E125">
+        <v>52</v>
+      </c>
       <c r="F125">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G125">
         <v>2</v>
       </c>
-      <c r="H125">
-        <v>2</v>
+      <c r="H125" t="s">
+        <v>11</v>
       </c>
       <c r="I125" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J125" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K125" t="s">
         <v>10</v>
       </c>
-      <c r="L125" t="s">
-        <v>13</v>
-      </c>
-      <c r="M125">
+      <c r="L125">
         <v>162241</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>10125</v>
       </c>
@@ -6562,40 +5803,37 @@
         <v>9261</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126" t="s">
-        <v>182</v>
-      </c>
-      <c r="E126" s="1">
+        <v>54</v>
+      </c>
+      <c r="D126" s="1">
         <v>44874</v>
       </c>
+      <c r="E126">
+        <v>52</v>
+      </c>
       <c r="F126">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G126">
         <v>2</v>
       </c>
-      <c r="H126">
-        <v>2</v>
+      <c r="H126" t="s">
+        <v>6</v>
       </c>
       <c r="I126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K126" t="s">
         <v>10</v>
       </c>
-      <c r="L126" t="s">
-        <v>13</v>
-      </c>
-      <c r="M126">
+      <c r="L126">
         <v>162000</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>10126</v>
       </c>
@@ -6603,40 +5841,37 @@
         <v>9261</v>
       </c>
       <c r="C127" t="s">
-        <v>176</v>
-      </c>
-      <c r="D127" t="s">
-        <v>183</v>
-      </c>
-      <c r="E127" s="1">
+        <v>54</v>
+      </c>
+      <c r="D127" s="1">
         <v>44846</v>
       </c>
+      <c r="E127">
+        <v>80</v>
+      </c>
       <c r="F127">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
-      <c r="H127">
-        <v>2</v>
+      <c r="H127" t="s">
+        <v>11</v>
       </c>
       <c r="I127" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J127" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K127" t="s">
         <v>10</v>
       </c>
-      <c r="L127" t="s">
-        <v>13</v>
-      </c>
-      <c r="M127">
+      <c r="L127">
         <v>160301.29999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10127</v>
       </c>
@@ -6644,40 +5879,37 @@
         <v>9261</v>
       </c>
       <c r="C128" t="s">
-        <v>176</v>
-      </c>
-      <c r="D128" t="s">
-        <v>184</v>
-      </c>
-      <c r="E128" s="1">
+        <v>54</v>
+      </c>
+      <c r="D128" s="1">
         <v>44846</v>
       </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
       <c r="F128">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <v>2</v>
       </c>
-      <c r="H128">
-        <v>2</v>
+      <c r="H128" t="s">
+        <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J128" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K128" t="s">
         <v>10</v>
       </c>
-      <c r="L128" t="s">
-        <v>13</v>
-      </c>
-      <c r="M128">
+      <c r="L128">
         <v>158483.20000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10128</v>
       </c>
@@ -6685,36 +5917,33 @@
         <v>9261</v>
       </c>
       <c r="C129" t="s">
-        <v>176</v>
-      </c>
-      <c r="D129" t="s">
-        <v>185</v>
-      </c>
-      <c r="E129" s="1">
+        <v>54</v>
+      </c>
+      <c r="D129" s="1">
         <v>44874</v>
       </c>
+      <c r="E129">
+        <v>52</v>
+      </c>
       <c r="F129">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
-      <c r="H129">
-        <v>2</v>
+      <c r="H129" t="s">
+        <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K129" t="s">
         <v>10</v>
       </c>
-      <c r="L129" t="s">
-        <v>13</v>
-      </c>
-      <c r="M129">
+      <c r="L129">
         <v>151300</v>
       </c>
     </row>
